--- a/inst/templates/templateProject/Scripts/ReportingFramework/Scenarios.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Scenarios.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB87ED95-57C1-4BBB-87F1-8F025CEFE140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595486E4-01B8-499F-8E48-7FF3501E37AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
-    <sheet name="OutputPaths" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Pavel Balazki:</t>
         </r>
@@ -58,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Simulation time is defined as time intervals.
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>SimulationTime</t>
   </si>
@@ -125,9 +124,6 @@
   </si>
   <si>
     <t>test_scenario_female</t>
-  </si>
-  <si>
-    <t>OutputPaths</t>
   </si>
 </sst>
 </file>
@@ -154,14 +150,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,28 +465,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1BACA-04A5-4461-B34D-CB73BA82CEC5}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -542,7 +538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -557,29 +553,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC39008-E9E9-4EF8-AE4C-88A9D25FC3B2}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/inst/templates/templateProject/Scripts/ReportingFramework/Scenarios.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/Scenarios.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595486E4-01B8-499F-8E48-7FF3501E37AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07745464-C9BD-4DDE-9AE6-2BA6D607F449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
+    <sheet name="OutputPaths" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>SimulationTime</t>
   </si>
@@ -124,6 +125,24 @@
   </si>
   <si>
     <t>test_scenario_female</t>
+  </si>
+  <si>
+    <t>OutputPathId</t>
+  </si>
+  <si>
+    <t>OutputPath</t>
+  </si>
+  <si>
+    <t>Aciclovir_PVB</t>
+  </si>
+  <si>
+    <t>Organism|PeripheralVenousBlood|Aciclovir|Plasma (Peripheral Venous Blood)</t>
+  </si>
+  <si>
+    <t>Aciclovir_fat_cell</t>
+  </si>
+  <si>
+    <t>Organism|Fat|Intracellular|Aciclovir|Concentration in container</t>
   </si>
 </sst>
 </file>
@@ -465,28 +484,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1BACA-04A5-4461-B34D-CB73BA82CEC5}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -527,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -538,7 +557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -556,27 +575,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972BE67B-2EA9-478C-9680-D11881161269}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -813,26 +856,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9A7DEF-8D50-4222-A255-A8C989265833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -849,4 +893,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>